--- a/classfiers/bottleneck/welm/nearmiss/bloated_welm_lin_nearmiss_results.xlsx
+++ b/classfiers/bottleneck/welm/nearmiss/bloated_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9585798816568047</v>
+        <v>0.951388888888889</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8076923076923077</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -499,13 +499,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9487179487179488</v>
+        <v>0.9916666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.96</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.962962962962963</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9692307692307693</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8984615384615384</v>
+        <v>0.8981884057971016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8908424908424909</v>
+        <v>0.8925641025641026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8978233618233619</v>
+        <v>0.8937717019822283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9548361894515741</v>
+        <v>0.9824572649572649</v>
       </c>
     </row>
   </sheetData>
